--- a/automation/Repository/Cancellation - Copy.xlsx
+++ b/automation/Repository/Cancellation - Copy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Office\Ocean Win App POC\Ocean Automation\automation\target\Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Automation\automation\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>on hold</t>
   </si>
@@ -32,9 +32,6 @@
     <t>processed</t>
   </si>
   <si>
-    <t>7BA74257A9</t>
-  </si>
-  <si>
     <t>contractId</t>
   </si>
   <si>
@@ -45,6 +42,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>EA12435413</t>
   </si>
   <si>
     <t>skip</t>
@@ -57,7 +57,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,30 +423,30 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -458,7 +457,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>

--- a/automation/Repository/Cancellation - Copy.xlsx
+++ b/automation/Repository/Cancellation - Copy.xlsx
@@ -44,13 +44,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>EA12435413</t>
-  </si>
-  <si>
     <t>skip</t>
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>ABCDE1234578</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,18 +452,18 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/automation/Repository/Cancellation - Copy.xlsx
+++ b/automation/Repository/Cancellation - Copy.xlsx
@@ -50,7 +50,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>ABCDE1234578</t>
+    <t>AB1235845</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/automation/Repository/Cancellation - Copy.xlsx
+++ b/automation/Repository/Cancellation - Copy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>on hold</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>skip</t>
-  </si>
-  <si>
-    <t>pass</t>
   </si>
   <si>
     <t>AB1235845</t>
@@ -423,7 +417,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,19 +445,13 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
